--- a/MDLZ.xlsx
+++ b/MDLZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3DA907-A5F6-4D12-8D16-0B3352F9F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750E04C-97A9-4FC3-A06A-C9F4F5B03F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FCE37906-B77C-465D-AA1C-635A9557E711}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>MDLZ</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Tassimo, Oreo Drink, Tang</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,14 +414,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -748,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10C6C2F-9126-4C75-819F-DA302BBB03BA}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>57.8</v>
+        <v>68.88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,10 +791,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>1337.194254</v>
+        <v>1294.8153729999999</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,7 +806,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>77289.827881199992</v>
+        <v>89186.882892239984</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,10 +817,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="3">
-        <v>1517</v>
+        <v>1561</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,11 +828,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="3">
-        <f>1484+1821+16499</f>
-        <v>19804</v>
+        <f>15796+1828</f>
+        <v>17624</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,14 +853,14 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>95576.827881199992</v>
+        <v>105249.88289223998</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>+Model!E7/Model!$E$12</f>
         <v>0.49662199579133903</v>
       </c>
@@ -863,53 +873,53 @@
       <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>+Model!E8/Model!$E$12</f>
         <v>0.2834200908184738</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>+Model!E9/Model!$E$12</f>
         <v>0.13235131243770074</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>+Model!E10/Model!$E$12</f>
         <v>2.8685347214530955E-2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f>+Model!E11/Model!$E$12</f>
         <v>5.8921253737955474E-2</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -924,10 +934,10 @@
   <dimension ref="A1:AL535"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +976,18 @@
       <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -991,6 +1013,9 @@
         <v>1204</v>
       </c>
       <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>1319</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1016,6 +1041,9 @@
         <v>1851</v>
       </c>
       <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>1950</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1041,6 +1069,9 @@
         <v>3323</v>
       </c>
       <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>3368</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1066,6 +1097,9 @@
         <v>2826</v>
       </c>
       <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>2653</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1091,6 +1125,9 @@
         <v>4605</v>
       </c>
       <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>4331</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1116,6 +1153,9 @@
         <v>2783</v>
       </c>
       <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>3182</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1141,6 +1181,9 @@
         <v>1023</v>
       </c>
       <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>970</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1166,6 +1209,9 @@
         <v>237</v>
       </c>
       <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>297</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1191,6 +1237,9 @@
         <v>556</v>
       </c>
       <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>533</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1216,7 +1265,9 @@
         <v>9204</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6">
+        <v>9313</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1269,7 +1320,9 @@
         <v>6205</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>6883</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1331,13 +1384,25 @@
         <v>2999</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14" si="1">+J12-J13</f>
+        <f t="shared" ref="J14:N14" si="1">+J12-J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>2430</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -1387,7 +1452,9 @@
         <v>1630</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>1711</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1440,7 +1507,9 @@
         <v>176</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1493,7 +1562,9 @@
         <v>40</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>37</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1555,13 +1626,25 @@
         <v>1153</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18" si="3">+J14-SUM(J15:J17)</f>
+        <f t="shared" ref="J18:N18" si="3">+J14-SUM(J15:J17)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>680</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1611,7 +1694,9 @@
         <v>25</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>18</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1664,7 +1749,9 @@
         <v>46</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>153</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1717,7 +1804,9 @@
         <v>0</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1779,13 +1868,25 @@
         <v>1132</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22" si="5">+J18+J19-J20+J21</f>
+        <f t="shared" ref="J22:N22" si="5">+J18+J19-J20+J21</f>
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="3">
+        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -1835,7 +1936,9 @@
         <v>326</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>154</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1891,7 +1994,9 @@
         <v>50</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>16</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1953,13 +2058,25 @@
         <v>856</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25" si="7">+J22-J23+J24</f>
+        <f t="shared" ref="J25:N25" si="7">+J22-J23+J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="K25" s="3">
+        <f t="shared" si="7"/>
+        <v>407</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2009,7 +2126,9 @@
         <v>3</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2071,13 +2190,25 @@
         <v>853</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" ref="J27" si="9">+J25-J26</f>
+        <f t="shared" ref="J27:N27" si="9">+J25-J26</f>
         <v>0</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="3">
+        <f t="shared" si="9"/>
+        <v>402</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2158,7 +2289,7 @@
         <v>0.72193690388848131</v>
       </c>
       <c r="F29" s="2" t="e">
-        <f t="shared" ref="F29:J29" si="11">+F27/F30</f>
+        <f t="shared" ref="F29:N29" si="11">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="2">
@@ -2177,10 +2308,22 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="K29" s="2">
+        <f t="shared" si="11"/>
+        <v>0.30899308224442734</v>
+      </c>
+      <c r="L29" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2230,7 +2373,9 @@
         <v>1339</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="3">
+        <v>1301</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>

--- a/MDLZ.xlsx
+++ b/MDLZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750E04C-97A9-4FC3-A06A-C9F4F5B03F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BFA14C-376A-448E-8900-C2DDEE7AD2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FCE37906-B77C-465D-AA1C-635A9557E711}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{FCE37906-B77C-465D-AA1C-635A9557E711}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +226,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -250,12 +248,25 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,32 +405,33 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -758,36 +770,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10C6C2F-9126-4C75-819F-DA302BBB03BA}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>68.88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3">
@@ -797,11 +811,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3">
@@ -809,11 +823,11 @@
         <v>89186.882892239984</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3">
@@ -823,8 +837,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="3">
@@ -835,20 +849,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="3">
@@ -856,11 +870,11 @@
         <v>105249.88289223998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="10">
         <f>+Model!E7/Model!$E$12</f>
         <v>0.49662199579133903</v>
       </c>
@@ -869,57 +883,57 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="10">
         <f>+Model!E8/Model!$E$12</f>
         <v>0.2834200908184738</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="10">
         <f>+Model!E9/Model!$E$12</f>
         <v>0.13235131243770074</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="10">
         <f>+Model!E10/Model!$E$12</f>
         <v>2.8685347214530955E-2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f>+Model!E11/Model!$E$12</f>
         <v>5.8921253737955474E-2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -937,21 +951,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1004,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="3">
@@ -1017,8 +1032,8 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3">
@@ -1045,8 +1060,8 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3">
@@ -1073,8 +1088,8 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3">
@@ -1101,8 +1116,8 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="3">
@@ -1129,8 +1144,8 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="3">
@@ -1157,8 +1172,8 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="3">
@@ -1185,8 +1200,8 @@
         <v>970</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3">
@@ -1213,8 +1228,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="3">
@@ -1241,31 +1256,31 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="19">
         <v>9166</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="19">
         <v>8507</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="19">
         <v>9029</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>9290</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="19">
         <v>8343</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="19">
         <v>9204</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
         <v>9313</v>
       </c>
       <c r="L12" s="3"/>
@@ -1296,8 +1311,8 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3">
@@ -1351,8 +1366,8 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="3">
@@ -1428,8 +1443,8 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3">
@@ -1483,8 +1498,8 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3">
@@ -1538,8 +1553,8 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="3">
@@ -1593,8 +1608,8 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
@@ -1670,8 +1685,8 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3">
@@ -1725,8 +1740,8 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="3">
@@ -1780,8 +1795,8 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3">
@@ -1835,8 +1850,8 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3">
@@ -1912,8 +1927,8 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3">
@@ -1967,8 +1982,8 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3">
@@ -2025,8 +2040,8 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3">
@@ -2102,8 +2117,8 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="3">
@@ -2157,8 +2172,8 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="3">
@@ -2234,7 +2249,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2272,55 +2287,55 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="20">
         <f t="shared" ref="C29:D29" si="10">+C27/C30</f>
         <v>1.5234260614934114</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="20">
         <f t="shared" si="10"/>
         <v>0.68768328445747806</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="20">
         <f>+E27/E30</f>
         <v>0.72193690388848131</v>
       </c>
-      <c r="F29" s="2" t="e">
+      <c r="F29" s="20" t="e">
         <f t="shared" ref="F29:N29" si="11">+F27/F30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="20">
         <f t="shared" si="11"/>
         <v>1.0474777448071217</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="20">
         <f t="shared" si="11"/>
         <v>0.44750558451228595</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="20">
         <f t="shared" si="11"/>
         <v>0.637042569081404</v>
       </c>
-      <c r="J29" s="2" t="e">
+      <c r="J29" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="20">
         <f t="shared" si="11"/>
         <v>0.30899308224442734</v>
       </c>
-      <c r="L29" s="2" t="e">
+      <c r="L29" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="2" t="e">
+      <c r="M29" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="2" t="e">
+      <c r="N29" s="20" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2349,8 +2364,8 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3">
@@ -2404,7 +2419,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2442,7 +2457,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2480,7 +2495,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2518,7 +2533,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2556,7 +2571,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2594,7 +2609,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2632,7 +2647,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2670,7 +2685,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2708,7 +2723,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2746,7 +2761,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2784,7 +2799,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2822,7 +2837,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2860,7 +2875,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2898,7 +2913,7 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2936,7 +2951,7 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2974,7 +2989,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3012,7 +3027,7 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3050,7 +3065,7 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3088,7 +3103,7 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3126,7 +3141,7 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3164,7 +3179,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3202,7 +3217,7 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3240,7 +3255,7 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3278,7 +3293,7 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3316,7 +3331,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3354,7 +3369,7 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3392,7 +3407,7 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3430,7 +3445,7 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3468,7 +3483,7 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3506,7 +3521,7 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3544,7 +3559,7 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3582,7 +3597,7 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3620,7 +3635,7 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3658,7 +3673,7 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3696,7 +3711,7 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3734,7 +3749,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3772,7 +3787,7 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3810,7 +3825,7 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3848,7 +3863,7 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3886,7 +3901,7 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3924,7 +3939,7 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3962,7 +3977,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4000,7 +4015,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4038,7 +4053,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4076,7 +4091,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4114,7 +4129,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4152,7 +4167,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4190,7 +4205,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4228,7 +4243,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4266,7 +4281,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4304,7 +4319,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4342,7 +4357,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4380,7 +4395,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4418,7 +4433,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4456,7 +4471,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4494,7 +4509,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4532,7 +4547,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4570,7 +4585,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4608,7 +4623,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4646,7 +4661,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4684,7 +4699,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4722,7 +4737,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4760,7 +4775,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4798,7 +4813,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4836,7 +4851,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4874,7 +4889,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4912,7 +4927,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4950,7 +4965,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4988,7 +5003,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5026,7 +5041,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5064,7 +5079,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5102,7 +5117,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5140,7 +5155,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5178,7 +5193,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5216,7 +5231,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5254,7 +5269,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5292,7 +5307,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5330,7 +5345,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5368,7 +5383,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5406,7 +5421,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5444,7 +5459,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5482,7 +5497,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5520,7 +5535,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5558,7 +5573,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5596,7 +5611,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5634,7 +5649,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5672,7 +5687,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5710,7 +5725,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5748,7 +5763,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5786,7 +5801,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5824,7 +5839,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5862,7 +5877,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5900,7 +5915,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5938,7 +5953,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5976,7 +5991,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6014,7 +6029,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6052,7 +6067,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6090,7 +6105,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6128,7 +6143,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6166,7 +6181,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6204,7 +6219,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6242,7 +6257,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6280,7 +6295,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6318,7 +6333,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6356,7 +6371,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6394,7 +6409,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6432,7 +6447,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6470,7 +6485,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6508,7 +6523,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6546,7 +6561,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6584,7 +6599,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6622,7 +6637,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6660,7 +6675,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6698,7 +6713,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6736,7 +6751,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6774,7 +6789,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6812,7 +6827,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6850,7 +6865,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6888,7 +6903,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6926,7 +6941,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6964,7 +6979,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -7002,7 +7017,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7040,7 +7055,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7078,7 +7093,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7116,7 +7131,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7154,7 +7169,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7192,7 +7207,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7230,7 +7245,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7268,7 +7283,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7306,7 +7321,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7344,7 +7359,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7382,7 +7397,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7420,7 +7435,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7458,7 +7473,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7496,7 +7511,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7534,7 +7549,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7572,7 +7587,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7610,7 +7625,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7648,7 +7663,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7686,7 +7701,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7724,7 +7739,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7762,7 +7777,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7800,7 +7815,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7838,7 +7853,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7876,7 +7891,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7914,7 +7929,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7952,7 +7967,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7990,7 +8005,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -8028,7 +8043,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -8066,7 +8081,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -8104,7 +8119,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8142,7 +8157,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8180,7 +8195,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8218,7 +8233,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -8256,7 +8271,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8294,7 +8309,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -8332,7 +8347,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8370,7 +8385,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8408,7 +8423,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8446,7 +8461,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8484,7 +8499,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -8522,7 +8537,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -8560,7 +8575,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8598,7 +8613,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8636,7 +8651,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8674,7 +8689,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8712,7 +8727,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8750,7 +8765,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8788,7 +8803,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8826,7 +8841,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8864,7 +8879,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8902,7 +8917,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8940,7 +8955,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -8978,7 +8993,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -9016,7 +9031,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -9054,7 +9069,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -9092,7 +9107,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9130,7 +9145,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9168,7 +9183,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9206,7 +9221,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9244,7 +9259,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9282,7 +9297,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9320,7 +9335,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -9358,7 +9373,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -9396,7 +9411,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -9434,7 +9449,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -9472,7 +9487,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9510,7 +9525,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -9548,7 +9563,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -9586,7 +9601,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -9624,7 +9639,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9662,7 +9677,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9700,7 +9715,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9738,7 +9753,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9776,7 +9791,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9814,7 +9829,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9852,7 +9867,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9890,7 +9905,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9928,7 +9943,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9966,7 +9981,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -10004,7 +10019,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -10042,7 +10057,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -10080,7 +10095,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -10118,7 +10133,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -10156,7 +10171,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -10194,7 +10209,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10232,7 +10247,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -10270,7 +10285,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10308,7 +10323,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -10346,7 +10361,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -10384,7 +10399,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -10422,7 +10437,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10460,7 +10475,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10498,7 +10513,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -10536,7 +10551,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -10574,7 +10589,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -10612,7 +10627,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -10650,7 +10665,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -10688,7 +10703,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -10726,7 +10741,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -10764,7 +10779,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10802,7 +10817,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10840,7 +10855,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10878,7 +10893,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10916,7 +10931,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -10954,7 +10969,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -10992,7 +11007,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -11030,7 +11045,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -11068,7 +11083,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -11106,7 +11121,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -11144,7 +11159,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -11182,7 +11197,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -11220,7 +11235,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -11258,7 +11273,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -11296,7 +11311,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -11334,7 +11349,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -11372,7 +11387,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -11410,7 +11425,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -11448,7 +11463,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -11486,7 +11501,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -11524,7 +11539,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -11562,7 +11577,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -11600,7 +11615,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -11638,7 +11653,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -11676,7 +11691,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -11714,7 +11729,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -11752,7 +11767,7 @@
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
     </row>
-    <row r="277" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -11790,7 +11805,7 @@
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
     </row>
-    <row r="278" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -11828,7 +11843,7 @@
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
     </row>
-    <row r="279" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -11866,7 +11881,7 @@
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
     </row>
-    <row r="280" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -11904,7 +11919,7 @@
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
     </row>
-    <row r="281" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -11942,7 +11957,7 @@
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
     </row>
-    <row r="282" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -11980,7 +11995,7 @@
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
     </row>
-    <row r="283" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -12018,7 +12033,7 @@
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
     </row>
-    <row r="284" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -12056,7 +12071,7 @@
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
     </row>
-    <row r="285" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -12094,7 +12109,7 @@
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
     </row>
-    <row r="286" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -12132,7 +12147,7 @@
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
     </row>
-    <row r="287" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -12170,7 +12185,7 @@
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
     </row>
-    <row r="288" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -12208,7 +12223,7 @@
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
     </row>
-    <row r="289" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -12246,7 +12261,7 @@
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
     </row>
-    <row r="290" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -12284,7 +12299,7 @@
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
     </row>
-    <row r="291" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -12322,7 +12337,7 @@
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
     </row>
-    <row r="292" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -12360,7 +12375,7 @@
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
     </row>
-    <row r="293" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -12398,7 +12413,7 @@
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
     </row>
-    <row r="294" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -12436,7 +12451,7 @@
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
     </row>
-    <row r="295" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -12474,7 +12489,7 @@
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
     </row>
-    <row r="296" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -12512,7 +12527,7 @@
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
     </row>
-    <row r="297" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -12550,7 +12565,7 @@
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
     </row>
-    <row r="298" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -12588,7 +12603,7 @@
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
     </row>
-    <row r="299" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -12626,7 +12641,7 @@
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
     </row>
-    <row r="300" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -12664,7 +12679,7 @@
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
     </row>
-    <row r="301" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -12702,7 +12717,7 @@
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
     </row>
-    <row r="302" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -12740,7 +12755,7 @@
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
     </row>
-    <row r="303" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -12778,7 +12793,7 @@
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
     </row>
-    <row r="304" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -12816,7 +12831,7 @@
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
     </row>
-    <row r="305" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -12854,7 +12869,7 @@
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
     </row>
-    <row r="306" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -12892,7 +12907,7 @@
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
     </row>
-    <row r="307" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -12930,7 +12945,7 @@
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
     </row>
-    <row r="308" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -12968,7 +12983,7 @@
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
     </row>
-    <row r="309" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -13006,7 +13021,7 @@
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
     </row>
-    <row r="310" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -13044,7 +13059,7 @@
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
     </row>
-    <row r="311" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -13082,7 +13097,7 @@
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
     </row>
-    <row r="312" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -13120,7 +13135,7 @@
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
     </row>
-    <row r="313" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -13158,7 +13173,7 @@
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
     </row>
-    <row r="314" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -13196,7 +13211,7 @@
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
     </row>
-    <row r="315" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -13234,7 +13249,7 @@
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
     </row>
-    <row r="316" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -13272,7 +13287,7 @@
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
     </row>
-    <row r="317" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -13310,7 +13325,7 @@
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
     </row>
-    <row r="318" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -13348,7 +13363,7 @@
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
     </row>
-    <row r="319" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -13386,7 +13401,7 @@
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
     </row>
-    <row r="320" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -13424,7 +13439,7 @@
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
     </row>
-    <row r="321" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -13462,7 +13477,7 @@
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
     </row>
-    <row r="322" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -13500,7 +13515,7 @@
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
     </row>
-    <row r="323" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -13538,7 +13553,7 @@
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
     </row>
-    <row r="324" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -13576,7 +13591,7 @@
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
     </row>
-    <row r="325" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -13614,7 +13629,7 @@
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
     </row>
-    <row r="326" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -13652,7 +13667,7 @@
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
     </row>
-    <row r="327" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -13690,7 +13705,7 @@
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
     </row>
-    <row r="328" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -13728,7 +13743,7 @@
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
     </row>
-    <row r="329" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -13766,7 +13781,7 @@
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
     </row>
-    <row r="330" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -13804,7 +13819,7 @@
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
     </row>
-    <row r="331" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -13842,7 +13857,7 @@
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
     </row>
-    <row r="332" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -13880,7 +13895,7 @@
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
     </row>
-    <row r="333" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -13918,7 +13933,7 @@
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
     </row>
-    <row r="334" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -13956,7 +13971,7 @@
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
     </row>
-    <row r="335" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -13994,7 +14009,7 @@
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
     </row>
-    <row r="336" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -14032,7 +14047,7 @@
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
     </row>
-    <row r="337" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -14070,7 +14085,7 @@
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
     </row>
-    <row r="338" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -14108,7 +14123,7 @@
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
     </row>
-    <row r="339" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -14146,7 +14161,7 @@
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
     </row>
-    <row r="340" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -14184,7 +14199,7 @@
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
     </row>
-    <row r="341" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -14222,7 +14237,7 @@
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
     </row>
-    <row r="342" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -14260,7 +14275,7 @@
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
     </row>
-    <row r="343" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -14298,7 +14313,7 @@
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
     </row>
-    <row r="344" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -14336,7 +14351,7 @@
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
     </row>
-    <row r="345" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -14374,7 +14389,7 @@
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
     </row>
-    <row r="346" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -14412,7 +14427,7 @@
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
     </row>
-    <row r="347" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -14450,7 +14465,7 @@
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
     </row>
-    <row r="348" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -14488,7 +14503,7 @@
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
     </row>
-    <row r="349" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -14526,7 +14541,7 @@
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
     </row>
-    <row r="350" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -14564,7 +14579,7 @@
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
     </row>
-    <row r="351" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -14602,7 +14617,7 @@
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
     </row>
-    <row r="352" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -14640,7 +14655,7 @@
       <c r="AK352" s="3"/>
       <c r="AL352" s="3"/>
     </row>
-    <row r="353" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -14678,7 +14693,7 @@
       <c r="AK353" s="3"/>
       <c r="AL353" s="3"/>
     </row>
-    <row r="354" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -14716,7 +14731,7 @@
       <c r="AK354" s="3"/>
       <c r="AL354" s="3"/>
     </row>
-    <row r="355" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -14754,7 +14769,7 @@
       <c r="AK355" s="3"/>
       <c r="AL355" s="3"/>
     </row>
-    <row r="356" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -14792,7 +14807,7 @@
       <c r="AK356" s="3"/>
       <c r="AL356" s="3"/>
     </row>
-    <row r="357" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -14830,7 +14845,7 @@
       <c r="AK357" s="3"/>
       <c r="AL357" s="3"/>
     </row>
-    <row r="358" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -14868,7 +14883,7 @@
       <c r="AK358" s="3"/>
       <c r="AL358" s="3"/>
     </row>
-    <row r="359" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -14906,7 +14921,7 @@
       <c r="AK359" s="3"/>
       <c r="AL359" s="3"/>
     </row>
-    <row r="360" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -14944,7 +14959,7 @@
       <c r="AK360" s="3"/>
       <c r="AL360" s="3"/>
     </row>
-    <row r="361" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -14982,7 +14997,7 @@
       <c r="AK361" s="3"/>
       <c r="AL361" s="3"/>
     </row>
-    <row r="362" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -15020,7 +15035,7 @@
       <c r="AK362" s="3"/>
       <c r="AL362" s="3"/>
     </row>
-    <row r="363" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -15058,7 +15073,7 @@
       <c r="AK363" s="3"/>
       <c r="AL363" s="3"/>
     </row>
-    <row r="364" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -15096,7 +15111,7 @@
       <c r="AK364" s="3"/>
       <c r="AL364" s="3"/>
     </row>
-    <row r="365" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -15134,7 +15149,7 @@
       <c r="AK365" s="3"/>
       <c r="AL365" s="3"/>
     </row>
-    <row r="366" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -15172,7 +15187,7 @@
       <c r="AK366" s="3"/>
       <c r="AL366" s="3"/>
     </row>
-    <row r="367" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -15210,7 +15225,7 @@
       <c r="AK367" s="3"/>
       <c r="AL367" s="3"/>
     </row>
-    <row r="368" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -15248,7 +15263,7 @@
       <c r="AK368" s="3"/>
       <c r="AL368" s="3"/>
     </row>
-    <row r="369" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -15286,7 +15301,7 @@
       <c r="AK369" s="3"/>
       <c r="AL369" s="3"/>
     </row>
-    <row r="370" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -15324,7 +15339,7 @@
       <c r="AK370" s="3"/>
       <c r="AL370" s="3"/>
     </row>
-    <row r="371" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -15362,7 +15377,7 @@
       <c r="AK371" s="3"/>
       <c r="AL371" s="3"/>
     </row>
-    <row r="372" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -15400,7 +15415,7 @@
       <c r="AK372" s="3"/>
       <c r="AL372" s="3"/>
     </row>
-    <row r="373" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -15438,7 +15453,7 @@
       <c r="AK373" s="3"/>
       <c r="AL373" s="3"/>
     </row>
-    <row r="374" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -15476,7 +15491,7 @@
       <c r="AK374" s="3"/>
       <c r="AL374" s="3"/>
     </row>
-    <row r="375" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -15514,7 +15529,7 @@
       <c r="AK375" s="3"/>
       <c r="AL375" s="3"/>
     </row>
-    <row r="376" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -15552,7 +15567,7 @@
       <c r="AK376" s="3"/>
       <c r="AL376" s="3"/>
     </row>
-    <row r="377" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -15590,7 +15605,7 @@
       <c r="AK377" s="3"/>
       <c r="AL377" s="3"/>
     </row>
-    <row r="378" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -15628,7 +15643,7 @@
       <c r="AK378" s="3"/>
       <c r="AL378" s="3"/>
     </row>
-    <row r="379" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -15666,7 +15681,7 @@
       <c r="AK379" s="3"/>
       <c r="AL379" s="3"/>
     </row>
-    <row r="380" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -15704,7 +15719,7 @@
       <c r="AK380" s="3"/>
       <c r="AL380" s="3"/>
     </row>
-    <row r="381" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -15742,7 +15757,7 @@
       <c r="AK381" s="3"/>
       <c r="AL381" s="3"/>
     </row>
-    <row r="382" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -15780,7 +15795,7 @@
       <c r="AK382" s="3"/>
       <c r="AL382" s="3"/>
     </row>
-    <row r="383" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -15818,7 +15833,7 @@
       <c r="AK383" s="3"/>
       <c r="AL383" s="3"/>
     </row>
-    <row r="384" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -15856,7 +15871,7 @@
       <c r="AK384" s="3"/>
       <c r="AL384" s="3"/>
     </row>
-    <row r="385" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -15894,7 +15909,7 @@
       <c r="AK385" s="3"/>
       <c r="AL385" s="3"/>
     </row>
-    <row r="386" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -15932,7 +15947,7 @@
       <c r="AK386" s="3"/>
       <c r="AL386" s="3"/>
     </row>
-    <row r="387" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -15970,7 +15985,7 @@
       <c r="AK387" s="3"/>
       <c r="AL387" s="3"/>
     </row>
-    <row r="388" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -16008,7 +16023,7 @@
       <c r="AK388" s="3"/>
       <c r="AL388" s="3"/>
     </row>
-    <row r="389" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -16046,7 +16061,7 @@
       <c r="AK389" s="3"/>
       <c r="AL389" s="3"/>
     </row>
-    <row r="390" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -16084,7 +16099,7 @@
       <c r="AK390" s="3"/>
       <c r="AL390" s="3"/>
     </row>
-    <row r="391" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -16122,7 +16137,7 @@
       <c r="AK391" s="3"/>
       <c r="AL391" s="3"/>
     </row>
-    <row r="392" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -16160,7 +16175,7 @@
       <c r="AK392" s="3"/>
       <c r="AL392" s="3"/>
     </row>
-    <row r="393" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -16198,7 +16213,7 @@
       <c r="AK393" s="3"/>
       <c r="AL393" s="3"/>
     </row>
-    <row r="394" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -16236,7 +16251,7 @@
       <c r="AK394" s="3"/>
       <c r="AL394" s="3"/>
     </row>
-    <row r="395" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -16274,7 +16289,7 @@
       <c r="AK395" s="3"/>
       <c r="AL395" s="3"/>
     </row>
-    <row r="396" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -16312,7 +16327,7 @@
       <c r="AK396" s="3"/>
       <c r="AL396" s="3"/>
     </row>
-    <row r="397" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -16350,7 +16365,7 @@
       <c r="AK397" s="3"/>
       <c r="AL397" s="3"/>
     </row>
-    <row r="398" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -16388,7 +16403,7 @@
       <c r="AK398" s="3"/>
       <c r="AL398" s="3"/>
     </row>
-    <row r="399" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -16426,7 +16441,7 @@
       <c r="AK399" s="3"/>
       <c r="AL399" s="3"/>
     </row>
-    <row r="400" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -16464,7 +16479,7 @@
       <c r="AK400" s="3"/>
       <c r="AL400" s="3"/>
     </row>
-    <row r="401" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -16502,7 +16517,7 @@
       <c r="AK401" s="3"/>
       <c r="AL401" s="3"/>
     </row>
-    <row r="402" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -16540,7 +16555,7 @@
       <c r="AK402" s="3"/>
       <c r="AL402" s="3"/>
     </row>
-    <row r="403" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -16578,7 +16593,7 @@
       <c r="AK403" s="3"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -16616,7 +16631,7 @@
       <c r="AK404" s="3"/>
       <c r="AL404" s="3"/>
     </row>
-    <row r="405" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -16654,7 +16669,7 @@
       <c r="AK405" s="3"/>
       <c r="AL405" s="3"/>
     </row>
-    <row r="406" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -16692,7 +16707,7 @@
       <c r="AK406" s="3"/>
       <c r="AL406" s="3"/>
     </row>
-    <row r="407" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -16730,7 +16745,7 @@
       <c r="AK407" s="3"/>
       <c r="AL407" s="3"/>
     </row>
-    <row r="408" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -16768,7 +16783,7 @@
       <c r="AK408" s="3"/>
       <c r="AL408" s="3"/>
     </row>
-    <row r="409" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -16806,7 +16821,7 @@
       <c r="AK409" s="3"/>
       <c r="AL409" s="3"/>
     </row>
-    <row r="410" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -16844,7 +16859,7 @@
       <c r="AK410" s="3"/>
       <c r="AL410" s="3"/>
     </row>
-    <row r="411" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -16882,7 +16897,7 @@
       <c r="AK411" s="3"/>
       <c r="AL411" s="3"/>
     </row>
-    <row r="412" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -16920,7 +16935,7 @@
       <c r="AK412" s="3"/>
       <c r="AL412" s="3"/>
     </row>
-    <row r="413" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -16958,7 +16973,7 @@
       <c r="AK413" s="3"/>
       <c r="AL413" s="3"/>
     </row>
-    <row r="414" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -16996,7 +17011,7 @@
       <c r="AK414" s="3"/>
       <c r="AL414" s="3"/>
     </row>
-    <row r="415" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -17034,7 +17049,7 @@
       <c r="AK415" s="3"/>
       <c r="AL415" s="3"/>
     </row>
-    <row r="416" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -17072,7 +17087,7 @@
       <c r="AK416" s="3"/>
       <c r="AL416" s="3"/>
     </row>
-    <row r="417" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -17110,7 +17125,7 @@
       <c r="AK417" s="3"/>
       <c r="AL417" s="3"/>
     </row>
-    <row r="418" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -17148,7 +17163,7 @@
       <c r="AK418" s="3"/>
       <c r="AL418" s="3"/>
     </row>
-    <row r="419" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -17186,7 +17201,7 @@
       <c r="AK419" s="3"/>
       <c r="AL419" s="3"/>
     </row>
-    <row r="420" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -17224,7 +17239,7 @@
       <c r="AK420" s="3"/>
       <c r="AL420" s="3"/>
     </row>
-    <row r="421" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -17262,7 +17277,7 @@
       <c r="AK421" s="3"/>
       <c r="AL421" s="3"/>
     </row>
-    <row r="422" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -17300,7 +17315,7 @@
       <c r="AK422" s="3"/>
       <c r="AL422" s="3"/>
     </row>
-    <row r="423" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -17338,7 +17353,7 @@
       <c r="AK423" s="3"/>
       <c r="AL423" s="3"/>
     </row>
-    <row r="424" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -17376,7 +17391,7 @@
       <c r="AK424" s="3"/>
       <c r="AL424" s="3"/>
     </row>
-    <row r="425" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -17414,7 +17429,7 @@
       <c r="AK425" s="3"/>
       <c r="AL425" s="3"/>
     </row>
-    <row r="426" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -17452,7 +17467,7 @@
       <c r="AK426" s="3"/>
       <c r="AL426" s="3"/>
     </row>
-    <row r="427" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -17490,7 +17505,7 @@
       <c r="AK427" s="3"/>
       <c r="AL427" s="3"/>
     </row>
-    <row r="428" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -17528,7 +17543,7 @@
       <c r="AK428" s="3"/>
       <c r="AL428" s="3"/>
     </row>
-    <row r="429" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -17566,7 +17581,7 @@
       <c r="AK429" s="3"/>
       <c r="AL429" s="3"/>
     </row>
-    <row r="430" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -17604,7 +17619,7 @@
       <c r="AK430" s="3"/>
       <c r="AL430" s="3"/>
     </row>
-    <row r="431" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -17642,7 +17657,7 @@
       <c r="AK431" s="3"/>
       <c r="AL431" s="3"/>
     </row>
-    <row r="432" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -17680,7 +17695,7 @@
       <c r="AK432" s="3"/>
       <c r="AL432" s="3"/>
     </row>
-    <row r="433" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -17718,7 +17733,7 @@
       <c r="AK433" s="3"/>
       <c r="AL433" s="3"/>
     </row>
-    <row r="434" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -17756,7 +17771,7 @@
       <c r="AK434" s="3"/>
       <c r="AL434" s="3"/>
     </row>
-    <row r="435" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -17794,7 +17809,7 @@
       <c r="AK435" s="3"/>
       <c r="AL435" s="3"/>
     </row>
-    <row r="436" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -17832,7 +17847,7 @@
       <c r="AK436" s="3"/>
       <c r="AL436" s="3"/>
     </row>
-    <row r="437" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -17870,7 +17885,7 @@
       <c r="AK437" s="3"/>
       <c r="AL437" s="3"/>
     </row>
-    <row r="438" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -17908,7 +17923,7 @@
       <c r="AK438" s="3"/>
       <c r="AL438" s="3"/>
     </row>
-    <row r="439" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -17946,7 +17961,7 @@
       <c r="AK439" s="3"/>
       <c r="AL439" s="3"/>
     </row>
-    <row r="440" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -17984,7 +17999,7 @@
       <c r="AK440" s="3"/>
       <c r="AL440" s="3"/>
     </row>
-    <row r="441" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -18022,7 +18037,7 @@
       <c r="AK441" s="3"/>
       <c r="AL441" s="3"/>
     </row>
-    <row r="442" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -18060,7 +18075,7 @@
       <c r="AK442" s="3"/>
       <c r="AL442" s="3"/>
     </row>
-    <row r="443" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -18098,7 +18113,7 @@
       <c r="AK443" s="3"/>
       <c r="AL443" s="3"/>
     </row>
-    <row r="444" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -18136,7 +18151,7 @@
       <c r="AK444" s="3"/>
       <c r="AL444" s="3"/>
     </row>
-    <row r="445" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -18174,7 +18189,7 @@
       <c r="AK445" s="3"/>
       <c r="AL445" s="3"/>
     </row>
-    <row r="446" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -18212,7 +18227,7 @@
       <c r="AK446" s="3"/>
       <c r="AL446" s="3"/>
     </row>
-    <row r="447" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -18250,7 +18265,7 @@
       <c r="AK447" s="3"/>
       <c r="AL447" s="3"/>
     </row>
-    <row r="448" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -18288,7 +18303,7 @@
       <c r="AK448" s="3"/>
       <c r="AL448" s="3"/>
     </row>
-    <row r="449" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -18326,7 +18341,7 @@
       <c r="AK449" s="3"/>
       <c r="AL449" s="3"/>
     </row>
-    <row r="450" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -18364,7 +18379,7 @@
       <c r="AK450" s="3"/>
       <c r="AL450" s="3"/>
     </row>
-    <row r="451" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -18402,7 +18417,7 @@
       <c r="AK451" s="3"/>
       <c r="AL451" s="3"/>
     </row>
-    <row r="452" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -18440,7 +18455,7 @@
       <c r="AK452" s="3"/>
       <c r="AL452" s="3"/>
     </row>
-    <row r="453" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -18478,7 +18493,7 @@
       <c r="AK453" s="3"/>
       <c r="AL453" s="3"/>
     </row>
-    <row r="454" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -18516,7 +18531,7 @@
       <c r="AK454" s="3"/>
       <c r="AL454" s="3"/>
     </row>
-    <row r="455" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -18554,7 +18569,7 @@
       <c r="AK455" s="3"/>
       <c r="AL455" s="3"/>
     </row>
-    <row r="456" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -18592,7 +18607,7 @@
       <c r="AK456" s="3"/>
       <c r="AL456" s="3"/>
     </row>
-    <row r="457" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -18630,7 +18645,7 @@
       <c r="AK457" s="3"/>
       <c r="AL457" s="3"/>
     </row>
-    <row r="458" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -18668,7 +18683,7 @@
       <c r="AK458" s="3"/>
       <c r="AL458" s="3"/>
     </row>
-    <row r="459" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -18706,7 +18721,7 @@
       <c r="AK459" s="3"/>
       <c r="AL459" s="3"/>
     </row>
-    <row r="460" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -18744,7 +18759,7 @@
       <c r="AK460" s="3"/>
       <c r="AL460" s="3"/>
     </row>
-    <row r="461" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -18782,7 +18797,7 @@
       <c r="AK461" s="3"/>
       <c r="AL461" s="3"/>
     </row>
-    <row r="462" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -18820,7 +18835,7 @@
       <c r="AK462" s="3"/>
       <c r="AL462" s="3"/>
     </row>
-    <row r="463" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -18858,7 +18873,7 @@
       <c r="AK463" s="3"/>
       <c r="AL463" s="3"/>
     </row>
-    <row r="464" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -18896,7 +18911,7 @@
       <c r="AK464" s="3"/>
       <c r="AL464" s="3"/>
     </row>
-    <row r="465" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -18934,7 +18949,7 @@
       <c r="AK465" s="3"/>
       <c r="AL465" s="3"/>
     </row>
-    <row r="466" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -18972,7 +18987,7 @@
       <c r="AK466" s="3"/>
       <c r="AL466" s="3"/>
     </row>
-    <row r="467" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -19010,7 +19025,7 @@
       <c r="AK467" s="3"/>
       <c r="AL467" s="3"/>
     </row>
-    <row r="468" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -19048,7 +19063,7 @@
       <c r="AK468" s="3"/>
       <c r="AL468" s="3"/>
     </row>
-    <row r="469" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -19086,7 +19101,7 @@
       <c r="AK469" s="3"/>
       <c r="AL469" s="3"/>
     </row>
-    <row r="470" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -19124,7 +19139,7 @@
       <c r="AK470" s="3"/>
       <c r="AL470" s="3"/>
     </row>
-    <row r="471" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -19162,7 +19177,7 @@
       <c r="AK471" s="3"/>
       <c r="AL471" s="3"/>
     </row>
-    <row r="472" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -19200,7 +19215,7 @@
       <c r="AK472" s="3"/>
       <c r="AL472" s="3"/>
     </row>
-    <row r="473" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -19238,7 +19253,7 @@
       <c r="AK473" s="3"/>
       <c r="AL473" s="3"/>
     </row>
-    <row r="474" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -19276,7 +19291,7 @@
       <c r="AK474" s="3"/>
       <c r="AL474" s="3"/>
     </row>
-    <row r="475" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -19314,7 +19329,7 @@
       <c r="AK475" s="3"/>
       <c r="AL475" s="3"/>
     </row>
-    <row r="476" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -19352,7 +19367,7 @@
       <c r="AK476" s="3"/>
       <c r="AL476" s="3"/>
     </row>
-    <row r="477" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -19390,7 +19405,7 @@
       <c r="AK477" s="3"/>
       <c r="AL477" s="3"/>
     </row>
-    <row r="478" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -19428,7 +19443,7 @@
       <c r="AK478" s="3"/>
       <c r="AL478" s="3"/>
     </row>
-    <row r="479" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -19466,7 +19481,7 @@
       <c r="AK479" s="3"/>
       <c r="AL479" s="3"/>
     </row>
-    <row r="480" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -19504,7 +19519,7 @@
       <c r="AK480" s="3"/>
       <c r="AL480" s="3"/>
     </row>
-    <row r="481" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -19542,7 +19557,7 @@
       <c r="AK481" s="3"/>
       <c r="AL481" s="3"/>
     </row>
-    <row r="482" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -19580,7 +19595,7 @@
       <c r="AK482" s="3"/>
       <c r="AL482" s="3"/>
     </row>
-    <row r="483" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -19618,7 +19633,7 @@
       <c r="AK483" s="3"/>
       <c r="AL483" s="3"/>
     </row>
-    <row r="484" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -19656,7 +19671,7 @@
       <c r="AK484" s="3"/>
       <c r="AL484" s="3"/>
     </row>
-    <row r="485" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -19694,7 +19709,7 @@
       <c r="AK485" s="3"/>
       <c r="AL485" s="3"/>
     </row>
-    <row r="486" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -19732,7 +19747,7 @@
       <c r="AK486" s="3"/>
       <c r="AL486" s="3"/>
     </row>
-    <row r="487" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -19770,7 +19785,7 @@
       <c r="AK487" s="3"/>
       <c r="AL487" s="3"/>
     </row>
-    <row r="488" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -19808,7 +19823,7 @@
       <c r="AK488" s="3"/>
       <c r="AL488" s="3"/>
     </row>
-    <row r="489" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -19846,7 +19861,7 @@
       <c r="AK489" s="3"/>
       <c r="AL489" s="3"/>
     </row>
-    <row r="490" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -19884,7 +19899,7 @@
       <c r="AK490" s="3"/>
       <c r="AL490" s="3"/>
     </row>
-    <row r="491" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -19922,7 +19937,7 @@
       <c r="AK491" s="3"/>
       <c r="AL491" s="3"/>
     </row>
-    <row r="492" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -19960,7 +19975,7 @@
       <c r="AK492" s="3"/>
       <c r="AL492" s="3"/>
     </row>
-    <row r="493" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -19998,7 +20013,7 @@
       <c r="AK493" s="3"/>
       <c r="AL493" s="3"/>
     </row>
-    <row r="494" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -20036,7 +20051,7 @@
       <c r="AK494" s="3"/>
       <c r="AL494" s="3"/>
     </row>
-    <row r="495" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -20074,7 +20089,7 @@
       <c r="AK495" s="3"/>
       <c r="AL495" s="3"/>
     </row>
-    <row r="496" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -20112,7 +20127,7 @@
       <c r="AK496" s="3"/>
       <c r="AL496" s="3"/>
     </row>
-    <row r="497" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -20150,7 +20165,7 @@
       <c r="AK497" s="3"/>
       <c r="AL497" s="3"/>
     </row>
-    <row r="498" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -20188,7 +20203,7 @@
       <c r="AK498" s="3"/>
       <c r="AL498" s="3"/>
     </row>
-    <row r="499" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -20226,7 +20241,7 @@
       <c r="AK499" s="3"/>
       <c r="AL499" s="3"/>
     </row>
-    <row r="500" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -20264,7 +20279,7 @@
       <c r="AK500" s="3"/>
       <c r="AL500" s="3"/>
     </row>
-    <row r="501" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -20302,7 +20317,7 @@
       <c r="AK501" s="3"/>
       <c r="AL501" s="3"/>
     </row>
-    <row r="502" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -20340,7 +20355,7 @@
       <c r="AK502" s="3"/>
       <c r="AL502" s="3"/>
     </row>
-    <row r="503" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -20378,7 +20393,7 @@
       <c r="AK503" s="3"/>
       <c r="AL503" s="3"/>
     </row>
-    <row r="504" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -20416,7 +20431,7 @@
       <c r="AK504" s="3"/>
       <c r="AL504" s="3"/>
     </row>
-    <row r="505" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -20454,7 +20469,7 @@
       <c r="AK505" s="3"/>
       <c r="AL505" s="3"/>
     </row>
-    <row r="506" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -20492,7 +20507,7 @@
       <c r="AK506" s="3"/>
       <c r="AL506" s="3"/>
     </row>
-    <row r="507" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -20530,7 +20545,7 @@
       <c r="AK507" s="3"/>
       <c r="AL507" s="3"/>
     </row>
-    <row r="508" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -20568,7 +20583,7 @@
       <c r="AK508" s="3"/>
       <c r="AL508" s="3"/>
     </row>
-    <row r="509" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -20606,7 +20621,7 @@
       <c r="AK509" s="3"/>
       <c r="AL509" s="3"/>
     </row>
-    <row r="510" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -20644,7 +20659,7 @@
       <c r="AK510" s="3"/>
       <c r="AL510" s="3"/>
     </row>
-    <row r="511" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -20682,7 +20697,7 @@
       <c r="AK511" s="3"/>
       <c r="AL511" s="3"/>
     </row>
-    <row r="512" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -20720,7 +20735,7 @@
       <c r="AK512" s="3"/>
       <c r="AL512" s="3"/>
     </row>
-    <row r="513" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -20758,7 +20773,7 @@
       <c r="AK513" s="3"/>
       <c r="AL513" s="3"/>
     </row>
-    <row r="514" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -20796,7 +20811,7 @@
       <c r="AK514" s="3"/>
       <c r="AL514" s="3"/>
     </row>
-    <row r="515" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -20834,7 +20849,7 @@
       <c r="AK515" s="3"/>
       <c r="AL515" s="3"/>
     </row>
-    <row r="516" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -20872,7 +20887,7 @@
       <c r="AK516" s="3"/>
       <c r="AL516" s="3"/>
     </row>
-    <row r="517" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -20910,7 +20925,7 @@
       <c r="AK517" s="3"/>
       <c r="AL517" s="3"/>
     </row>
-    <row r="518" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -20948,7 +20963,7 @@
       <c r="AK518" s="3"/>
       <c r="AL518" s="3"/>
     </row>
-    <row r="519" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -20986,7 +21001,7 @@
       <c r="AK519" s="3"/>
       <c r="AL519" s="3"/>
     </row>
-    <row r="520" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -21024,7 +21039,7 @@
       <c r="AK520" s="3"/>
       <c r="AL520" s="3"/>
     </row>
-    <row r="521" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -21062,7 +21077,7 @@
       <c r="AK521" s="3"/>
       <c r="AL521" s="3"/>
     </row>
-    <row r="522" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -21100,7 +21115,7 @@
       <c r="AK522" s="3"/>
       <c r="AL522" s="3"/>
     </row>
-    <row r="523" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -21138,7 +21153,7 @@
       <c r="AK523" s="3"/>
       <c r="AL523" s="3"/>
     </row>
-    <row r="524" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -21176,7 +21191,7 @@
       <c r="AK524" s="3"/>
       <c r="AL524" s="3"/>
     </row>
-    <row r="525" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -21214,7 +21229,7 @@
       <c r="AK525" s="3"/>
       <c r="AL525" s="3"/>
     </row>
-    <row r="526" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -21252,7 +21267,7 @@
       <c r="AK526" s="3"/>
       <c r="AL526" s="3"/>
     </row>
-    <row r="527" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -21290,7 +21305,7 @@
       <c r="AK527" s="3"/>
       <c r="AL527" s="3"/>
     </row>
-    <row r="528" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -21328,7 +21343,7 @@
       <c r="AK528" s="3"/>
       <c r="AL528" s="3"/>
     </row>
-    <row r="529" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -21366,7 +21381,7 @@
       <c r="AK529" s="3"/>
       <c r="AL529" s="3"/>
     </row>
-    <row r="530" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -21404,7 +21419,7 @@
       <c r="AK530" s="3"/>
       <c r="AL530" s="3"/>
     </row>
-    <row r="531" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -21442,7 +21457,7 @@
       <c r="AK531" s="3"/>
       <c r="AL531" s="3"/>
     </row>
-    <row r="532" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -21480,7 +21495,7 @@
       <c r="AK532" s="3"/>
       <c r="AL532" s="3"/>
     </row>
-    <row r="533" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -21518,7 +21533,7 @@
       <c r="AK533" s="3"/>
       <c r="AL533" s="3"/>
     </row>
-    <row r="534" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -21556,7 +21571,7 @@
       <c r="AK534" s="3"/>
       <c r="AL534" s="3"/>
     </row>
-    <row r="535" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
